--- a/teaching/traditional_assets/database/data/nigeria/nigeria_r_e_i_t.xlsx
+++ b/teaching/traditional_assets/database/data/nigeria/nigeria_r_e_i_t.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ4"/>
+  <dimension ref="A1:AQ3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,7 +582,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -591,61 +591,70 @@
         </is>
       </c>
       <c r="G2">
-        <v>0.7169811320754716</v>
+        <v>1.010830324909747</v>
       </c>
       <c r="H2">
-        <v>0.7169811320754716</v>
+        <v>1.010830324909747</v>
       </c>
       <c r="I2">
-        <v>0.7207547169811321</v>
+        <v>0.7021660649819494</v>
       </c>
       <c r="J2">
-        <v>0.7006159822419534</v>
+        <v>0.7021660649819494</v>
       </c>
       <c r="K2">
-        <v>8.57</v>
+        <v>4.1</v>
       </c>
       <c r="L2">
-        <v>1.616981132075472</v>
+        <v>0.740072202166065</v>
       </c>
       <c r="M2">
-        <v>14.8271</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0.2829599236641221</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>1.730116686114352</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>6.277100000000001</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.1197919847328244</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>0.7324504084014003</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>8.550000000000001</v>
-      </c>
-      <c r="T2">
-        <v>0.5766468156281404</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>1.77</v>
+        <v>4.07</v>
       </c>
       <c r="V2">
-        <v>0.03377862595419847</v>
+        <v>0.1057142857142857</v>
+      </c>
+      <c r="W2">
+        <v>0.04357066950053135</v>
       </c>
       <c r="X2">
-        <v>0.05589000976650109</v>
+        <v>0.07539266199954733</v>
+      </c>
+      <c r="Y2">
+        <v>-0.03182199249901598</v>
       </c>
       <c r="Z2">
-        <v>0.1587301587301587</v>
+        <v>0.05951869359690589</v>
+      </c>
+      <c r="AA2">
+        <v>0.04179200687580576</v>
       </c>
       <c r="AB2">
-        <v>0.05589000976650109</v>
+        <v>0.07539266199954733</v>
+      </c>
+      <c r="AC2">
+        <v>-0.03360065512374157</v>
       </c>
       <c r="AD2">
         <v>0</v>
@@ -657,7 +666,7 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>-1.77</v>
+        <v>-4.07</v>
       </c>
       <c r="AH2">
         <v>0</v>
@@ -666,10 +675,10 @@
         <v>0</v>
       </c>
       <c r="AJ2">
-        <v>-0.03495951017183488</v>
+        <v>-0.1182108626198083</v>
       </c>
       <c r="AK2">
-        <v>-0.01474631342164459</v>
+        <v>-0.05169566874126763</v>
       </c>
       <c r="AL2">
         <v>0</v>
@@ -681,7 +690,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>-0.4265060240963855</v>
+        <v>-0.9667458432304039</v>
       </c>
     </row>
     <row r="3">
@@ -701,58 +710,70 @@
         </is>
       </c>
       <c r="G3">
-        <v>0.6989528795811518</v>
+        <v>1.010830324909747</v>
       </c>
       <c r="H3">
-        <v>0.6989528795811518</v>
+        <v>1.010830324909747</v>
       </c>
       <c r="I3">
-        <v>0.7251308900523561</v>
+        <v>0.7021660649819494</v>
       </c>
       <c r="J3">
-        <v>0.7251308900523561</v>
+        <v>0.7021660649819494</v>
       </c>
       <c r="K3">
-        <v>7.61</v>
+        <v>4.1</v>
       </c>
       <c r="L3">
-        <v>1.992146596858639</v>
+        <v>0.740072202166065</v>
       </c>
       <c r="M3">
-        <v>5.336600000000001</v>
+        <v>-0</v>
       </c>
       <c r="N3">
-        <v>0.1704984025559106</v>
+        <v>-0</v>
       </c>
       <c r="O3">
-        <v>0.7012614980289094</v>
+        <v>-0</v>
       </c>
       <c r="P3">
-        <v>5.336600000000001</v>
+        <v>-0</v>
       </c>
       <c r="Q3">
-        <v>0.1704984025559106</v>
+        <v>-0</v>
       </c>
       <c r="R3">
-        <v>0.7012614980289094</v>
+        <v>-0</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
-      <c r="T3">
-        <v>0</v>
-      </c>
       <c r="U3">
-        <v>1.02</v>
+        <v>4.07</v>
       </c>
       <c r="V3">
-        <v>0.03258785942492013</v>
+        <v>0.1057142857142857</v>
+      </c>
+      <c r="W3">
+        <v>0.04357066950053135</v>
       </c>
       <c r="X3">
-        <v>0.05589000976650109</v>
+        <v>0.07539266199954733</v>
+      </c>
+      <c r="Y3">
+        <v>-0.03182199249901598</v>
+      </c>
+      <c r="Z3">
+        <v>0.05951869359690589</v>
+      </c>
+      <c r="AA3">
+        <v>0.04179200687580576</v>
       </c>
       <c r="AB3">
-        <v>0.05589000976650109</v>
+        <v>0.07539266199954733</v>
+      </c>
+      <c r="AC3">
+        <v>-0.03360065512374157</v>
       </c>
       <c r="AD3">
         <v>0</v>
@@ -764,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>-1.02</v>
+        <v>-4.07</v>
       </c>
       <c r="AH3">
         <v>0</v>
@@ -773,10 +794,10 @@
         <v>0</v>
       </c>
       <c r="AJ3">
-        <v>-0.03368560105680317</v>
+        <v>-0.1182108626198083</v>
       </c>
       <c r="AK3">
-        <v>-0.01095831542758917</v>
+        <v>-0.05169566874126763</v>
       </c>
       <c r="AL3">
         <v>0</v>
@@ -788,129 +809,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>-0.3333333333333333</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Nigeria</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Union Homes Real Estate Investment Trust PLC (NGSE:UHOMREIT)</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>R.E.I.T.</t>
-        </is>
-      </c>
-      <c r="G4">
-        <v>0.7635135135135135</v>
-      </c>
-      <c r="H4">
-        <v>0.7635135135135135</v>
-      </c>
-      <c r="I4">
-        <v>0.7094594594594595</v>
-      </c>
-      <c r="J4">
-        <v>0.6698131955484897</v>
-      </c>
-      <c r="K4">
-        <v>0.96</v>
-      </c>
-      <c r="L4">
-        <v>0.6486486486486487</v>
-      </c>
-      <c r="M4">
-        <v>9.490500000000001</v>
-      </c>
-      <c r="N4">
-        <v>0.4497867298578199</v>
-      </c>
-      <c r="O4">
-        <v>9.885937500000001</v>
-      </c>
-      <c r="P4">
-        <v>0.9405</v>
-      </c>
-      <c r="Q4">
-        <v>0.04457345971563981</v>
-      </c>
-      <c r="R4">
-        <v>0.9796875</v>
-      </c>
-      <c r="S4">
-        <v>8.550000000000001</v>
-      </c>
-      <c r="T4">
-        <v>0.9009009009009009</v>
-      </c>
-      <c r="U4">
-        <v>0.75</v>
-      </c>
-      <c r="V4">
-        <v>0.03554502369668246</v>
-      </c>
-      <c r="W4">
-        <v>0.02727272727272727</v>
-      </c>
-      <c r="X4">
-        <v>0.05589000976650109</v>
-      </c>
-      <c r="Y4">
-        <v>-0.02861728249377382</v>
-      </c>
-      <c r="Z4">
-        <v>0.044324648098233</v>
-      </c>
-      <c r="AA4">
-        <v>0.02968923418423973</v>
-      </c>
-      <c r="AB4">
-        <v>0.05589000976650109</v>
-      </c>
-      <c r="AC4">
-        <v>-0.02620077558226136</v>
-      </c>
-      <c r="AD4">
-        <v>0</v>
-      </c>
-      <c r="AE4">
-        <v>0</v>
-      </c>
-      <c r="AF4">
-        <v>0</v>
-      </c>
-      <c r="AG4">
-        <v>-0.75</v>
-      </c>
-      <c r="AH4">
-        <v>0</v>
-      </c>
-      <c r="AI4">
-        <v>0</v>
-      </c>
-      <c r="AJ4">
-        <v>-0.03685503685503685</v>
-      </c>
-      <c r="AK4">
-        <v>-0.02782931354359926</v>
-      </c>
-      <c r="AL4">
-        <v>0</v>
-      </c>
-      <c r="AM4">
-        <v>0</v>
-      </c>
-      <c r="AN4">
-        <v>0</v>
-      </c>
-      <c r="AP4">
-        <v>-0.6880733944954128</v>
+        <v>-0.9667458432304039</v>
       </c>
     </row>
   </sheetData>
